--- a/Team-Data/2007-08/1-12-2007-08.xlsx
+++ b/Team-Data/2007-08/1-12-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
         <v>28</v>
@@ -780,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="AP2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>11</v>
@@ -792,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>23</v>
@@ -804,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -816,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -848,67 +915,67 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.857</v>
+        <v>0.882</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>74.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O3" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P3" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q3" t="n">
         <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S3" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.7</v>
+        <v>42</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
@@ -917,16 +984,16 @@
         <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -953,22 +1020,22 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
@@ -980,25 +1047,25 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.694</v>
+        <v>0.695</v>
       </c>
       <c r="R4" t="n">
         <v>10.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
@@ -1099,16 +1166,16 @@
         <v>23.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1138,19 +1205,19 @@
         <v>17</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1162,16 +1229,16 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
         <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1180,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1299,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1314,22 +1381,22 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP5" t="n">
         <v>25</v>
       </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW5" t="n">
         <v>15</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1496,13 +1563,13 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1511,13 +1578,13 @@
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1526,13 +1593,13 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY6" t="n">
         <v>17</v>
@@ -1541,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.703</v>
+        <v>0.694</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.468</v>
@@ -1615,13 +1682,13 @@
         <v>26.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.824</v>
+        <v>0.825</v>
       </c>
       <c r="R7" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>42.1</v>
@@ -1630,31 +1697,31 @@
         <v>20.5</v>
       </c>
       <c r="V7" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
         <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA7" t="n">
         <v>21.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1666,13 +1733,13 @@
         <v>3</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
         <v>5</v>
@@ -1696,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>14</v>
@@ -1902,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -1940,85 +2007,85 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="H9" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
         <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L9" t="n">
         <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.764</v>
       </c>
       <c r="R9" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S9" t="n">
         <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U9" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
         <v>5.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
@@ -2045,28 +2112,28 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
       </c>
       <c r="AP9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR9" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>22</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -2075,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ9" t="n">
         <v>10</v>
@@ -2090,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="BB9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2433,10 +2500,10 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.447</v>
+        <v>0.432</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,37 +2571,37 @@
         <v>38.4</v>
       </c>
       <c r="J12" t="n">
-        <v>86.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.745</v>
+        <v>0.742</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T12" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
         <v>22.8</v>
@@ -2543,10 +2610,10 @@
         <v>16.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
@@ -2558,10 +2625,10 @@
         <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
@@ -2570,13 +2637,13 @@
         <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2591,13 +2658,13 @@
         <v>4</v>
       </c>
       <c r="AM12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2612,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2621,10 +2688,10 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>0.303</v>
+        <v>0.313</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J13" t="n">
-        <v>79.40000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="L13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M13" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O13" t="n">
         <v>20.7</v>
@@ -2707,22 +2774,22 @@
         <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="S13" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T13" t="n">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W13" t="n">
         <v>6.7</v>
@@ -2731,22 +2798,22 @@
         <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
         <v>21.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
         <v>92.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,25 +2825,25 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2785,37 +2852,37 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
         <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,37 +3025,37 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
         <v>13</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3125,13 +3192,13 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>6</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -3149,10 +3216,10 @@
         <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
@@ -3170,7 +3237,7 @@
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3304,25 +3371,25 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
@@ -3334,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
@@ -3355,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -3396,133 +3463,133 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.405</v>
+        <v>0.417</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.453</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M17" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.336</v>
       </c>
       <c r="O17" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R17" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.3</v>
+        <v>94.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3534,16 +3601,16 @@
         <v>20</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,10 +3663,10 @@
         <v>36.2</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
@@ -3608,31 +3675,31 @@
         <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
         <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.721</v>
+        <v>0.717</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
         <v>18.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
         <v>7.2</v>
@@ -3641,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z18" t="n">
         <v>23.9</v>
@@ -3650,13 +3717,13 @@
         <v>17.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.6</v>
+        <v>-9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,25 +3735,25 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,25 +3762,25 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3859,10 +3926,10 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
         <v>16</v>
@@ -3880,13 +3947,13 @@
         <v>26</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4038,7 +4105,7 @@
         <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>18</v>
@@ -4071,13 +4138,13 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
@@ -4086,7 +4153,7 @@
         <v>10</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -4214,7 +4281,7 @@
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4232,13 +4299,13 @@
         <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4250,7 +4317,7 @@
         <v>28</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="n">
         <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,43 +4391,43 @@
         <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.463</v>
       </c>
       <c r="L22" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T22" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W22" t="n">
         <v>6.4</v>
@@ -4372,22 +4439,22 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
@@ -4399,10 +4466,10 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>7</v>
@@ -4417,13 +4484,13 @@
         <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4435,13 +4502,13 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>23</v>
@@ -4584,13 +4651,13 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>28</v>
@@ -4599,10 +4666,10 @@
         <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ23" t="n">
         <v>27</v>
@@ -4617,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>23</v>
@@ -4626,7 +4693,7 @@
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>19</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.703</v>
+        <v>0.694</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="J24" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="L24" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P24" t="n">
         <v>22.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R24" t="n">
         <v>8.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U24" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="V24" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.3</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4769,25 +4836,25 @@
         <v>4</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>3</v>
       </c>
       <c r="AM24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN24" t="n">
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,25 +4872,25 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4942,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4963,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
@@ -4972,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
@@ -4984,7 +5051,7 @@
         <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
@@ -4993,7 +5060,7 @@
         <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.412</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,19 +5119,19 @@
         <v>35.5</v>
       </c>
       <c r="J26" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M26" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="O26" t="n">
         <v>21.6</v>
@@ -5073,13 +5140,13 @@
         <v>27.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S26" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T26" t="n">
         <v>39.6</v>
@@ -5088,7 +5155,7 @@
         <v>17.9</v>
       </c>
       <c r="V26" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
@@ -5097,31 +5164,31 @@
         <v>3.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA26" t="n">
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
@@ -5139,13 +5206,13 @@
         <v>19</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP26" t="n">
         <v>8</v>
@@ -5154,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,16 +5233,16 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5234,76 +5301,76 @@
         <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L27" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
         <v>20.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="O27" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P27" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.758</v>
       </c>
       <c r="R27" t="n">
         <v>10.2</v>
       </c>
       <c r="S27" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U27" t="n">
         <v>22.1</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="X27" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y27" t="n">
         <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
         <v>22</v>
@@ -5315,7 +5382,7 @@
         <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5327,19 +5394,19 @@
         <v>3</v>
       </c>
       <c r="AO27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR27" t="n">
         <v>24</v>
       </c>
-      <c r="AP27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>23</v>
-      </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>20</v>
@@ -5348,13 +5415,13 @@
         <v>9</v>
       </c>
       <c r="AV27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5491,7 +5558,7 @@
         <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>6</v>
@@ -5500,22 +5567,22 @@
         <v>27</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>13</v>
@@ -5530,13 +5597,13 @@
         <v>20</v>
       </c>
       <c r="AV28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
         <v>22</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5673,7 +5740,7 @@
         <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>10</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5715,10 +5782,10 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX29" t="n">
         <v>23</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
         <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.553</v>
+        <v>0.541</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,10 +5847,10 @@
         <v>39.6</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L30" t="n">
         <v>3.9</v>
@@ -5792,34 +5859,34 @@
         <v>11.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T30" t="n">
         <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5828,13 +5895,13 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.1</v>
+        <v>104.8</v>
       </c>
       <c r="AC30" t="n">
         <v>4.7</v>
@@ -5843,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5852,7 +5919,7 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5861,10 +5928,10 @@
         <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>30</v>
@@ -5873,19 +5940,19 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP30" t="n">
         <v>5</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5897,10 +5964,10 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
@@ -5944,115 +6011,115 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.543</v>
+        <v>0.529</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L31" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
         <v>18.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.342</v>
+        <v>0.348</v>
       </c>
       <c r="O31" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.797</v>
+        <v>0.793</v>
       </c>
       <c r="R31" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U31" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
         <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
         <v>14</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6064,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>14</v>
@@ -6073,19 +6140,19 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-12-2007-08</t>
+          <t>2008-01-12</t>
         </is>
       </c>
     </row>
